--- a/PES/SRB Invoices/1044  SST Invoice for UEP (logical controls).xlsx
+++ b/PES/SRB Invoices/1044  SST Invoice for UEP (logical controls).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC38E47-C1F5-40E1-A61E-B3E21DEDE617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8A7E7-A1A1-4818-A649-CB04C1090975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1" sheetId="36" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$H$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -82,16 +82,16 @@
     <t>Value Including Sales Tax</t>
   </si>
   <si>
-    <t>HVAC, Fire Suppression &amp; NOVEC 1230 System Works – UEP Office Block 17th Floor – Sky Tower – B Dolmen City, Clifton Karachi.</t>
-  </si>
-  <si>
     <t>S4312149-7</t>
   </si>
   <si>
-    <t>Dated: 11-06-2024</t>
-  </si>
-  <si>
     <t>Invoice # 1044</t>
+  </si>
+  <si>
+    <t>Dated: 09-07-2024</t>
+  </si>
+  <si>
+    <t>HVAC, Fire Suppression &amp; NOVEC 1230 System Works – UEP Office Block 17th Floor – Sky Tower – B Dolmen City, Clifton Karachi- Control logic, pressure sensor &amp; control wiring for WCPUs.</t>
   </si>
 </sst>
 </file>
@@ -337,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -352,12 +352,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,7 +375,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,6 +415,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -442,54 +483,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -507,6 +500,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31130</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>62050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E950AA-FA34-898C-A95A-06B80F5C3E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9150080" y="5715000"/>
+          <a:ext cx="5239481" cy="3162741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -796,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:S51"/>
+  <dimension ref="A6:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -846,16 +888,16 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -870,16 +912,16 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -888,11 +930,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -912,388 +954,367 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="47"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="61"/>
+      <c r="H18" s="49"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="52"/>
+      <c r="H20" s="40"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="27" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="20"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="20"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+    <row r="27" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
         <v>1</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46">
+      <c r="B28" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57">
         <v>803250</v>
       </c>
-      <c r="F28" s="47">
-        <v>0.13</v>
-      </c>
-      <c r="G28" s="48">
-        <f>E28*13%</f>
-        <v>104422.5</v>
-      </c>
-      <c r="H28" s="58">
+      <c r="F28" s="58">
+        <v>0.15</v>
+      </c>
+      <c r="G28" s="59">
+        <f>E28*15%</f>
+        <v>120487.5</v>
+      </c>
+      <c r="H28" s="46">
         <f>E28+G28</f>
-        <v>907672.5</v>
+        <v>923737.5</v>
       </c>
       <c r="I28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="58"/>
+    <row r="29" spans="1:19" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="37"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="23"/>
+    <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="24"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-    </row>
-    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="6"/>
+      <c r="H30" s="20"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="25"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-    </row>
-    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="6"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="20"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="24"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-    </row>
-    <row r="33" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
+      <c r="H32" s="20"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="31"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="24"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
+      <c r="H33" s="20"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="24"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="S34" s="8"/>
-    </row>
-    <row r="35" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="36"/>
+    <row r="34" spans="1:19" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="12">
+        <f>SUM(E28:E32)</f>
+        <v>803250</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14">
+        <f>SUM(G28:G32)</f>
+        <v>120487.5</v>
+      </c>
+      <c r="H34" s="15">
+        <f>SUM(H28:H32)</f>
+        <v>923737.5</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="24"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
+      <c r="D35" s="3"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="R35" s="36"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="16">
-        <f>SUM(E28:E34)</f>
-        <v>803250</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18">
-        <f>SUM(G28:G34)</f>
-        <v>104422.5</v>
-      </c>
-      <c r="H36" s="19">
-        <f>SUM(H28:H34)</f>
-        <v>907672.5</v>
-      </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="S36" s="40"/>
+    <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="3"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="R37" s="41"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="R37" s="36"/>
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="15"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="R39" s="41"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="3"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S44" s="8"/>
+      <c r="E44" s="18"/>
+      <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S45" s="8"/>
+      <c r="L45" s="32"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E46" s="22"/>
-      <c r="L46" s="37"/>
+      <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L47" s="37"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L48" s="37"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="22"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G51" s="22"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B18:C18"/>
@@ -1310,15 +1331,11 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B26:D27"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0" bottom="0.25" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PES/SRB Invoices/1044  SST Invoice for UEP (logical controls).xlsx
+++ b/PES/SRB Invoices/1044  SST Invoice for UEP (logical controls).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8A7E7-A1A1-4818-A649-CB04C1090975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F249DFA-545E-4215-A4E4-0EBBEE3AC4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -337,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,6 +416,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,27 +485,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -841,7 +846,7 @@
   <dimension ref="A6:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I38" sqref="I33:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -888,16 +893,16 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -917,11 +922,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -930,11 +935,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -954,85 +959,85 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="26"/>
       <c r="E17" s="4"/>
       <c r="F17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="47"/>
+      <c r="H17" s="54"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="27"/>
       <c r="E18" s="3"/>
       <c r="F18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="49"/>
+      <c r="H18" s="56"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="19"/>
       <c r="E19" s="3"/>
       <c r="F19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="28"/>
       <c r="E20" s="3"/>
       <c r="F20" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="40"/>
+      <c r="H20" s="47"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1057,11 +1062,11 @@
       <c r="A24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="22" t="s">
         <v>12</v>
       </c>
@@ -1089,9 +1094,9 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1100,9 +1105,9 @@
     </row>
     <row r="27" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1111,25 +1116,25 @@
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="45">
         <v>1</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41">
         <v>803250</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="42">
         <v>0.15</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="43">
         <f>E28*15%</f>
         <v>120487.5</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="53">
         <f>E28+G28</f>
         <v>923737.5</v>
       </c>
@@ -1138,14 +1143,14 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="46"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="8"/>
       <c r="J29" s="32"/>
       <c r="K29" s="8"/>
@@ -1205,11 +1210,11 @@
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25"/>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="12">
         <f>SUM(E28:E32)</f>
         <v>803250</v>
@@ -1223,6 +1228,7 @@
         <f>SUM(H28:H32)</f>
         <v>923737.5</v>
       </c>
+      <c r="I34" s="60"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="S34" s="35"/>
@@ -1232,6 +1238,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
+      <c r="I35" s="61"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="R35" s="36"/>
@@ -1242,6 +1249,7 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
+      <c r="I36" s="61"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="S36" s="8"/>
@@ -1310,11 +1318,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B18:C18"/>
@@ -1331,6 +1334,11 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B26:D27"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
